--- a/Course3/variable.xlsx
+++ b/Course3/variable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/smithhome/GitHub/datasciencecoursera/Course3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{12440ECB-42D5-B24E-8531-FC929B1540C6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{4AEA8F1B-A71B-C94E-9E1F-9CD2A7E724C1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4020" yWindow="2380" windowWidth="28040" windowHeight="17440"/>
   </bookViews>
